--- a/brig-motors.xlsx
+++ b/brig-motors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="158">
   <si>
     <t>Артикул</t>
   </si>
@@ -28,6 +28,119 @@
     <t>Описание товара (RU)</t>
   </si>
   <si>
+    <t>244819503</t>
+  </si>
+  <si>
+    <t>Страховочный универсальный жилет унисекс Universal Vest Lime Green</t>
+  </si>
+  <si>
+    <t>980 грн</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>244820009</t>
+  </si>
+  <si>
+    <t>Страховочный жилет унисекс Universal Vest Red</t>
+  </si>
+  <si>
+    <t>Легкий жилет из  прочного и легкого нейлона и вспененного полиэтилена. Плавучесть 50N. Фирменный стильный дизайн Jobe. Регулируемые лямки и прочные пряжки. Система отвода воды. Регулируемый размер благодаря открытым боковым сторонам. Унисекс.</t>
+  </si>
+  <si>
+    <t>244820010</t>
+  </si>
+  <si>
+    <t>Страховочный жилет унисекс Universal Vest Lime Green</t>
+  </si>
+  <si>
+    <t>Легкий жилет универсального размера, из прочного и легкого нейлона и вспененного полиэтилена. Сертификат ISO, показатель плавучесть 50N. Фирменный стильный дизайн Jobe. Регулируемые лямки и прочные пряжки. Система отвода воды. Регулируемый размер благодаря открытым боковым сторонам. Унисекс.</t>
+  </si>
+  <si>
+    <t>244820011</t>
+  </si>
+  <si>
+    <t>Страховочный жилет унисекс Universal Vest Blue</t>
+  </si>
+  <si>
+    <t>244820001</t>
+  </si>
+  <si>
+    <t>Детский страховочный жилет Nylon Vest Youth Blue</t>
+  </si>
+  <si>
+    <t>1 176 грн</t>
+  </si>
+  <si>
+    <t>Быстросохнущий жилет из нейлона, сертифицированный по ISO 50N. Комфортные вставки из сверхмягких панелей из вспененногого полиэтилена (Expanded polyethylene) для дополнительной защиты и плавучести. Яркие вставки на плечах гарантируют, что ребенок будет всегда виден в воде. Система дренажа быстро убирает воду. Три прочные застежки-молнии YKK и регулируемые лямки обеспечивают комфортную фиксацию жилета. Унисекс.</t>
+  </si>
+  <si>
+    <t>244820002</t>
+  </si>
+  <si>
+    <t>Детский страховочный жилет Nylon Vest Youth Red</t>
+  </si>
+  <si>
+    <t>244820003</t>
+  </si>
+  <si>
+    <t>Детский страховочный жилет Nylon Vest Youth Hot Pink</t>
+  </si>
+  <si>
+    <t>Быстросохнущий жилет из нейлона, сертифицированный по ISO 50N. Комфортные вставки из сверхмягких панелей из ПВХ-пены для дополнительной защиты и плавучести. Легкий, прочный и  долговечный нейлон. Яркие вставки на плечах гарантируют, что ребенок будет  всегда виден в воде. Система дренажа быстро убирает воду. Три прочные застежки-молнии YKK и регулируемые лямки обеспечивают комфортную фиксацию жилета. Унисекс.</t>
+  </si>
+  <si>
+    <t>244820004</t>
+  </si>
+  <si>
+    <t>Детский страховочный жилет Nylon Vest Youth Lime Green</t>
+  </si>
+  <si>
+    <t>Быстросохнущий жилет из нейлона, сертифицированный по ISO 50N. Комфортные вставки из сверхмягких панелей из вспененногого полиэтилена (Expanded polyethylene) для дополнительной защиты и плавучести. Легкий, прочный и  долговечный нейлон. Система дренажа быстро убирает воду. Три прочные застежки-молнии YKK и регулируемые лямки обеспечивают комфортную фиксацию жилета. Унисекс, универсальный размер.</t>
+  </si>
+  <si>
+    <t>244820012</t>
+  </si>
+  <si>
+    <t>Страховочный жилет унисекс Dual Vest Lime Green</t>
+  </si>
+  <si>
+    <t>1 400 грн</t>
+  </si>
+  <si>
+    <t>Жилет для водного спорта. Унисекс. Хорошо поддерживает на плаву при падении с доски или лыж. ISO-сертификация.</t>
+  </si>
+  <si>
+    <t>244820013</t>
+  </si>
+  <si>
+    <t>Страховочный жилет унисекс Dual Vest Blue</t>
+  </si>
+  <si>
+    <t>Стильный жилет для водного спорта. Унисекс.
+Легкие вставки их вспененного полиэтилена. Прочная и легкая нейлоновая ткань.
+Четыре регулируемые лямки позволяют удобно зафиксировать жилет на торсе. Прочные застежки-молнии.</t>
+  </si>
+  <si>
+    <t>244820014</t>
+  </si>
+  <si>
+    <t>Страховочный жилет унисекс Dual Vest Red</t>
+  </si>
+  <si>
+    <t>Жилет хорошо поддерживает на плаву при падении с доски или лыж. ISO-сертификация. Легкие вставки их вспененного полиэтилена. Прочная и легкая нейлоновая ткань. Четыре регулируемые лямки позволяют удобно зафиксировать жилет на торсе. Прочные застежки-молнии. Сочетание высокого комфорта и безопасности. Защитное D-образное кольцо для крепления аварийного шнура. Система отвода воды.</t>
+  </si>
+  <si>
+    <t>244820016</t>
+  </si>
+  <si>
+    <t>Страховочный жилет унисекс Dual Vest Black</t>
+  </si>
+  <si>
+    <t>Страховочный жилет Dual Vest Black , унисекс, уровень плавучести сертифицирован по стандарту ISO 50N. Жилет изготовлен из прочного и легкого нейлона снаружи и вспененного полиэтилена внутри. Мягкие нейлоновые бока и регулируемые лямки делают жилет подходящим практически для всех размеров и форм тела. D-образные кольца для подсоединения к страховочному шнуру. Система отвода воды, прочные пряжки для регулировки фиксации жилета на теле райдера.</t>
+  </si>
+  <si>
     <t>244821001</t>
   </si>
   <si>
@@ -136,9 +249,6 @@
     <t>2 576 грн</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>244920015</t>
   </si>
   <si>
@@ -146,6 +256,243 @@
   </si>
   <si>
     <t>Neoprene Vest Women Cool Grey — неопреновый женский страховочный жилет. Оснащен дренажной системой осушения. Неопрен – легкий, гибкий, пластичный и прочный материал. Он отлично сохраняет тепло, водонепроницаем, устойчив к перепадам температур. Неопрен стоек к механическим и химическим повреждениям, долговечен, устойчив к образованию грибков и бактерий. Экологичен и безопасен для кожи. Уровень постоянной плавучести 50 Н.</t>
+  </si>
+  <si>
+    <t>244920016</t>
+  </si>
+  <si>
+    <t>Страховочный жилет женский Neoprene Vest Women Midnight Blue</t>
+  </si>
+  <si>
+    <t>Неопреновый женский страховочный жилет Neoprene Vest Women Midnight Blue. Оснащен дренажной системой осушения, отлично сохраняет тепло, водонепроницаем, устойчив к перепадам температур. Уровень постоянной плавучести 50 Н.</t>
+  </si>
+  <si>
+    <t>244920003</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Neoprene Vest Men Black</t>
+  </si>
+  <si>
+    <t>2 660 грн</t>
+  </si>
+  <si>
+    <t>Мужской страховочный жилет Neoprene Vest Men Black выполнен из технологически нового неопрена, +дает комфорт и защиту на воде. Уровень постоянной плавучести 50 Н. Вставки из пены ПВХ, удобная +молния спереди, две регулируемые застежки.</t>
+  </si>
+  <si>
+    <t>244920004</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Neoprene Vest Men Red</t>
+  </si>
+  <si>
+    <t>Страховочный жилет Neoprene Vest Men Red выполнен из технологически нового неопрена, дает
+комфорт и защиту на воде.</t>
+  </si>
+  <si>
+    <t>244920005</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Neoprene Vest Men Blue</t>
+  </si>
+  <si>
+    <t>Neoprene Vest Men Blue JOBE страховочный жилет выполнен из технологически нового неопрена, дает комфорт и защиту на воде. Неопрен – легкий, гибкий, пластичный и прочный материал. Он отлично сохраняет тепло, водонепроницаем, устойчив к перепадам температур.</t>
+  </si>
+  <si>
+    <t>244920002</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Neoprene Vest Men Lime Green</t>
+  </si>
+  <si>
+    <t>Jobe Neoprene Life Vest Men Lime Green – надежный страховочный жилет для мужчин. Изготовлен из  мягкого и эластичного неопрена. Оснащен передней застежкой-молнией YKK, прочными пряжками  и регулируемыми лямками. Наполнение — мягкая пена ПВХ. Уровень плавучести сертифицирован по стандарту ISO 50N. Страховочный шнур можно прикрепить к D-образному кольцу на передней части жилета. Система отвода воды.</t>
+  </si>
+  <si>
+    <t>244919221</t>
+  </si>
+  <si>
+    <t>Страховочный  жилет женский Neoprene Vest Women Bordeaux Red</t>
+  </si>
+  <si>
+    <t>2 688 грн</t>
+  </si>
+  <si>
+    <t>244920011</t>
+  </si>
+  <si>
+    <t>Мужской страховочный жилет Segmented Vest Men Graphite Grey модель 2020 года</t>
+  </si>
+  <si>
+    <t>3 080 грн</t>
+  </si>
+  <si>
+    <t>Мужской страховочный жилет Jobe Segmented Vest Men Graphite Grey  имеет степень плавучести 50N, оснащен сегментированными легкими вставками из вспененного полиэтилена. Обеспечивает защиту от ударов, поддержку на плаву и полную свободу движений. Изготовлен из  мягкой неопреновой ткани. Жилет доступен в больших размерах.</t>
+  </si>
+  <si>
+    <t>244920010</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Segmented Vest Men Cool Grey</t>
+  </si>
+  <si>
+    <t>3 108 грн</t>
+  </si>
+  <si>
+    <t>Жилет мужской Jobe Segmented Life Cool Grey сделает ваш отдых на воде более комфортным и безопасным. Сертификация уровня плавучести по стандарту ISO 50N. Изготовлен из высококачественной   неопреновой ткани. Сегментированные  вставки из пенополистирола служат дополнительной защитой корпуса райдера и не ограничивают  свободы движений.  Интегрированные в поверхность  лямки ремня. D-образное страховочное кольцо для крепления аварийного шнура.</t>
+  </si>
+  <si>
+    <t>244919121</t>
+  </si>
+  <si>
+    <t>Страховочный  жилет мужской  Segmented Vest Men Army Green</t>
+  </si>
+  <si>
+    <t>3 220 грн</t>
+  </si>
+  <si>
+    <t>244919120</t>
+  </si>
+  <si>
+    <t>Жилет страховочный мужской Segmented Jet Vest Backsupport Men</t>
+  </si>
+  <si>
+    <t>3 528 грн</t>
+  </si>
+  <si>
+    <t>Жилет повышает вашу безопасность, поддерживает спину, улучшает комфорт вашего отдыха на воде. Уровень поддержки плавучестве на воде (по ISO-сертифицикации) — 50N. Сертификат CE. Защитные вставки из ПВХ-пене. Мягкая и гибкая неопреновая ткань.</t>
+  </si>
+  <si>
+    <t>244921003</t>
+  </si>
+  <si>
+    <t>Страховочный жилет женский Unify Vest Women Hot Pink</t>
+  </si>
+  <si>
+    <t>Страховочный женский жиилет Jobe Unify с уровнем плавучести  50 Ньютонов подтвержденным сертификатом ISO. Изготовлен из мягкого неопрена. Внутренние вставки из вспененного ПВХ дают дополнительную защиту  и не ограничивают вашу способность двигаться.</t>
+  </si>
+  <si>
+    <t>244920007</t>
+  </si>
+  <si>
+    <t>Жилет страховочный мужской Unify Vest Men Vintage Teal</t>
+  </si>
+  <si>
+    <t>3 556 грн</t>
+  </si>
+  <si>
+    <t>Удобный страховочный жилет, максимально обеспечивающий безопасность и комфорт на воде. Сертификация ISO по безопасности (показатель плавучести 50N). Оснащен системой отвода воды, мягкими панелями из вспененного полиэтилена.</t>
+  </si>
+  <si>
+    <t>244920009</t>
+  </si>
+  <si>
+    <t>Страховочный жилет Unify Vest Men Midnight Blue модель 2020 года</t>
+  </si>
+  <si>
+    <t>Удобный страховочный жилет, максимально обеспечивающий безопасность и комфорт на воде. Показатель плавучести 50N. Оснащен системой отвода воды, мягкими панелями из вспененного полиэтилена. Полезная функция — внутренний карман с эластичным шнуром для подсоединения к водонепроницаемому чехлу для гаджетов. Удобная передняя застежка-молния YKK. Регулируемый лямочный ремень на животе позволяет идеально подогнать жилет по фигуре.</t>
+  </si>
+  <si>
+    <t>244920014</t>
+  </si>
+  <si>
+    <t>Страховочный жилет женский Unify Vest Women Vintage Teal</t>
+  </si>
+  <si>
+    <t>Женский страховочный жилет Unify Vest Women Vintage Teal выполнен из мягкого и удобного неопрена. Уровень плавучести 50 Н. Система дренажа воды и сплит-панели для повышения мобильности и гибкости.</t>
+  </si>
+  <si>
+    <t>244921004</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Unify Vest Men Black</t>
+  </si>
+  <si>
+    <t>Мужской страховочный жилет Jobe Unify Life Vest Men Black с сертифицированным ISO уровнем плавучести  50 Ньютонов.  Изготовлен из эластичного неопрена. Оснащен вставками из вспененного ПВХ, повышающих зашиту и не ограничивающих способность двигаться.</t>
+  </si>
+  <si>
+    <t>244921006</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Unify Vest Men Vintage Teal</t>
+  </si>
+  <si>
+    <t>Мужской страховочный жилет Jobe Unify Life Vest Men Vintage Teal с сертифицированным ISO уровнем плавучести  50 Ньютонов.  Изготовлен из эластичного неопрена. Оснащен вставками из вспененного ПВХ, повышающих защиту и не ограничивающих способность двигаться.</t>
+  </si>
+  <si>
+    <t>244921007</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Unify Vest Men Blue</t>
+  </si>
+  <si>
+    <t>Мужской страховочный жилет Jobe Unify Life Vest Men Blue с сертифицированным ISO уровнем плавучести  50 Ньютонов.  Изготовлен из эластичного неопрена. Оснащен вставками из вспененного ПВХ, повышающих защиту и не ограничивающих способность двигаться.</t>
+  </si>
+  <si>
+    <t>244921008</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Segmented Jet Vest Backsupport Men</t>
+  </si>
+  <si>
+    <t>Jobe Segmented Jet Life Vest Backsupport Men — мужской страховочный жилет из неопрена с сертифицированным ISO рейтингом плавучести 50 Ньютонов.  Поддержка и защита спины,  регулируемый поясной ремень. Система отвода воды.</t>
+  </si>
+  <si>
+    <t>244919101</t>
+  </si>
+  <si>
+    <t>Страховочный  жилет мужской Unify Vest Men Dark Teal</t>
+  </si>
+  <si>
+    <t>3 584 грн</t>
+  </si>
+  <si>
+    <t>244920017</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Unify Vest Side Entry Black</t>
+  </si>
+  <si>
+    <t>3 724 грн</t>
+  </si>
+  <si>
+    <t>Жилет имеет плавучесть 50N ISO и поддерживает вас на воде при падении. Оснащен надежной молнией на боковой стороне жилета. Система отвода воды и мягкие вспененные панели обеспечивают оптимальный комфорт. D-образные кольца для крепления аварийного шнура.</t>
+  </si>
+  <si>
+    <t>244919106</t>
+  </si>
+  <si>
+    <t>Страховочный  жилет мужской Unify Vest Men Army Green</t>
+  </si>
+  <si>
+    <t>3 780 грн</t>
+  </si>
+  <si>
+    <t>244920020</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Fragment Vest Men Grey</t>
+  </si>
+  <si>
+    <t>4 172 грн</t>
+  </si>
+  <si>
+    <t>Жилет JOBE Fragment – модель 2020 года, уникальная по степени комфорта и безопасности. Разделенные пенопластовые панели в сочетании с мягкой и гибкой эластичной тканью обеспечивают максимальную свободу движений, а сертификация ISO 50N гарантирует, что вы всегда будете на плаву.</t>
+  </si>
+  <si>
+    <t>244920021</t>
+  </si>
+  <si>
+    <t>Страховочный жилет мужской Fragment Vest Men Midnight Blue</t>
+  </si>
+  <si>
+    <t>244920018</t>
+  </si>
+  <si>
+    <t>Стаховочный жилет женский Fragment Vest Women Vintage Teal</t>
+  </si>
+  <si>
+    <t>Женский страховочный жилет Jobe Fragment обеспечит девушкам дополнительный комфорт и безопасность при занятии водными видами спорта. Вставки-панели в сочетании с мягкой и гибкой  тканью дают  максимальную свободу движений. Уровень плавучести сертифицирован  по стандарту 50N ISO — гарантирует, что вы всегда будете оставаться на плаву при падении в воду. D-образное кольцо для подсоединения страховочного шнура. Система отвода воды.</t>
   </si>
 </sst>
 </file>
@@ -477,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,150 +866,654 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
